--- a/6kN Heat Sink Engine/ME411 - Pintle Flow/Data Collection 3-8-20.xlsx
+++ b/6kN Heat Sink Engine/ME411 - Pintle Flow/Data Collection 3-8-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thoth.cecs.pdx.edu\Home06\mwass2\My Documents\GitHub\liquid-propellant-engine\6kN Heat Sink Engine\ME411 - Pintle Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898AC32D-13DE-4F13-B028-F161D7D45277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34457B7E-2E4C-4106-A770-8E3AADC4ADEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="0" windowWidth="21600" windowHeight="12960" xr2:uid="{A12A2F89-01FA-4C62-A867-DCD7E100E8A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="10245" xr2:uid="{A12A2F89-01FA-4C62-A867-DCD7E100E8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,20 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Approx Pressure</t>
   </si>
@@ -172,14 +164,24 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>Liters per second</t>
+  </si>
+  <si>
+    <t>Average pressure (excel)</t>
+  </si>
+  <si>
+    <t>Avg Pressure (Matlab)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="@\ &quot;(Default)&quot;"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="@\ &quot;(Default)&quot;"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss.00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -583,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,125 +599,130 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,15 +1037,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE552A72-F6C7-40B3-B93B-BF86FAE28750}">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1061,17 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1084,15 @@
       <c r="D3" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="45">
+        <v>35.588502562907706</v>
+      </c>
+      <c r="F3" s="47">
+        <f>D3/C3*0.998</f>
+        <v>0.59214666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1079,8 +1105,15 @@
       <c r="D4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="45">
+        <v>35.217225565069775</v>
+      </c>
+      <c r="F4" s="47">
+        <f t="shared" ref="F4:F32" si="0">D4/C4*0.998</f>
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1126,15 @@
       <c r="D5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="45">
+        <v>35.254076773323995</v>
+      </c>
+      <c r="F5" s="47">
+        <f t="shared" si="0"/>
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1147,15 @@
       <c r="D6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="45">
+        <v>35.225034732709176</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="0"/>
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1121,8 +1168,15 @@
       <c r="D7" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="45">
+        <v>30.283812785388129</v>
+      </c>
+      <c r="F7" s="47">
+        <f t="shared" si="0"/>
+        <v>0.54557333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1135,8 +1189,15 @@
       <c r="D8" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="45">
+        <v>30.665852272727275</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="0"/>
+        <v>0.55888000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1210,15 @@
       <c r="D9" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="45">
+        <v>31.025326132550379</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="0"/>
+        <v>0.56553333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1163,8 +1231,15 @@
       <c r="D10" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="45">
+        <v>30.877942383703278</v>
+      </c>
+      <c r="F10" s="47">
+        <f t="shared" si="0"/>
+        <v>0.56553333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1177,8 +1252,15 @@
       <c r="D11" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="45">
+        <v>24.823088299641213</v>
+      </c>
+      <c r="F11" s="47">
+        <f t="shared" si="0"/>
+        <v>0.50565333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -1191,8 +1273,15 @@
       <c r="D12" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="45">
+        <v>25.112262626262641</v>
+      </c>
+      <c r="F12" s="47">
+        <f t="shared" si="0"/>
+        <v>0.51230666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -1205,8 +1294,15 @@
       <c r="D13" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="45">
+        <v>24.823088299641213</v>
+      </c>
+      <c r="F13" s="47">
+        <f t="shared" si="0"/>
+        <v>0.51230666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1219,8 +1315,15 @@
       <c r="D14" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="45">
+        <v>25.360120527306965</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="0"/>
+        <v>0.51230666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1233,8 +1336,15 @@
       <c r="D15" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="45">
+        <v>15.048874458874455</v>
+      </c>
+      <c r="F15" s="47">
+        <f t="shared" si="0"/>
+        <v>0.41250666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -1247,8 +1357,15 @@
       <c r="D16" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="45">
+        <v>13.804172259507812</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="0"/>
+        <v>0.3992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1261,8 +1378,15 @@
       <c r="D17" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="45">
+        <v>14.178675590147114</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="0"/>
+        <v>0.3992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1275,8 +1399,15 @@
       <c r="D18" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="45">
+        <v>14.436161616161632</v>
+      </c>
+      <c r="F18" s="47">
+        <f t="shared" si="0"/>
+        <v>0.40585333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1289,8 +1420,15 @@
       <c r="D19" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="45">
+        <v>14.25908151723098</v>
+      </c>
+      <c r="F19" s="47">
+        <f t="shared" si="0"/>
+        <v>0.40585333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1303,8 +1441,15 @@
       <c r="D20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="45">
+        <v>19.626312866788634</v>
+      </c>
+      <c r="F20" s="47">
+        <f t="shared" si="0"/>
+        <v>0.46573333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1317,8 +1462,15 @@
       <c r="D21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="45">
+        <v>19.856749877630943</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" si="0"/>
+        <v>0.46573333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1331,115 +1483,217 @@
       <c r="D22" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="45">
+        <v>20.331635412554309</v>
+      </c>
+      <c r="F22" s="47">
+        <f t="shared" si="0"/>
+        <v>0.46573333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
       <c r="D23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="45">
+        <v>19.874458159500723</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" si="0"/>
+        <v>0.46573333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
       <c r="D24" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="45">
+        <v>10.346473780526306</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="0"/>
+        <v>0.35928000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
       <c r="D25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="45">
+        <v>8.8912174540209428</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="0"/>
+        <v>0.33266666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
       </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
       <c r="D27" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="45">
+        <v>9.8921481481481468</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="0"/>
+        <v>0.34597333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
       </c>
+      <c r="C28" s="2">
+        <v>15</v>
+      </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="45">
+        <v>8.9796588839212177</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" si="0"/>
+        <v>0.33266666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
+      <c r="C29" s="2">
+        <v>15</v>
+      </c>
       <c r="D29" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="45">
+        <v>3.6661234315728155</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="0"/>
+        <v>0.23952000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
       <c r="D30" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="45">
+        <v>2.8283481481481436</v>
+      </c>
+      <c r="F30" s="47">
+        <f t="shared" si="0"/>
+        <v>0.22621333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
+      <c r="C31" s="2">
+        <v>15</v>
+      </c>
       <c r="D31" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="45">
+        <v>2.874215091973241</v>
+      </c>
+      <c r="F31" s="47">
+        <f t="shared" si="0"/>
+        <v>0.21956000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
+      <c r="C32" s="2">
+        <v>15</v>
+      </c>
       <c r="D32" s="1">
         <v>3.2</v>
+      </c>
+      <c r="E32" s="45">
+        <v>2.7248334706366912</v>
+      </c>
+      <c r="F32" s="47">
+        <f t="shared" si="0"/>
+        <v>0.21290666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -1456,521 +1710,521 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.20703125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="12"/>
+    <col min="1" max="1" width="15.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="27">
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>43898.626851412038</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>2565528</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <v>212</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="19">
         <v>-0.59</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="33.549999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A7" s="40" t="str">
-        <f>IF(A4="","",A4)</f>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="str">
+        <f t="shared" ref="A7:K7" si="0">IF(A4="","",A4)</f>
         <v>Time</v>
       </c>
-      <c r="B7" s="41" t="str">
-        <f>IF(B4="","",B4)</f>
+      <c r="B7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH1</v>
       </c>
-      <c r="C7" s="41" t="str">
-        <f>IF(C4="","",C4)</f>
+      <c r="C7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH2</v>
       </c>
-      <c r="D7" s="41" t="str">
-        <f>IF(D4="","",D4)</f>
+      <c r="D7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH3</v>
       </c>
-      <c r="E7" s="41" t="str">
-        <f>IF(E4="","",E4)</f>
+      <c r="E7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH4</v>
       </c>
-      <c r="F7" s="41" t="str">
-        <f>IF(F4="","",F4)</f>
+      <c r="F7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH5</v>
       </c>
-      <c r="G7" s="41" t="str">
-        <f>IF(G4="","",G4)</f>
+      <c r="G7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH6</v>
       </c>
-      <c r="H7" s="41" t="str">
-        <f>IF(H4="","",H4)</f>
+      <c r="H7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH7</v>
       </c>
-      <c r="I7" s="41" t="str">
-        <f>IF(I4="","",I4)</f>
+      <c r="I7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH8</v>
       </c>
-      <c r="J7" s="41" t="str">
-        <f>IF(J4="","",J4)</f>
+      <c r="J7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH9</v>
       </c>
-      <c r="K7" s="41" t="str">
-        <f>IF(K4="","",K4)</f>
+      <c r="K7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>43898.626843124999</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="21">
         <v>2564812</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="21">
         <v>212</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="21">
         <v>-0.59</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>43898.626843738428</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="23">
         <v>2564864</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>212</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="34">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>43898.626844305552</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="23">
         <v>2564915</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>212</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>43898.626844918981</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="23">
         <v>2564965</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="23">
         <v>213</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>43898.626845486113</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="23">
         <v>2565017</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="23">
         <v>212</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>43898.626846099534</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="23">
         <v>2565068</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="23">
         <v>212</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="34">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>43898.626846678242</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="23">
         <v>2565118</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="23">
         <v>212</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="34">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>43898.626847291664</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="23">
         <v>2565171</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="23">
         <v>213</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>43898.626847858795</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="23">
         <v>2565221</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>212</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="34">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>43898.626848472224</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="23">
         <v>2565272</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <v>212</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>43898.626849039349</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="23">
         <v>2565323</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="23">
         <v>212</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="34">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>43898.626849652777</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="23">
         <v>2565374</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="23">
         <v>212</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>43898.626850231478</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>2565426</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>214</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="23">
         <v>-0.36</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="34">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>43898.626850844907</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="23">
         <v>2565477</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="23">
         <v>213</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="35">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>43898.626851412038</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="28">
         <v>2565528</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="28">
         <v>212</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="28">
         <v>-0.59</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1989,99 +2243,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3671875" defaultRowHeight="16.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3671875" style="12"/>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="42" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -2100,90 +2354,90 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="0.15625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="30.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/6kN Heat Sink Engine/ME411 - Pintle Flow/Data Collection 3-8-20.xlsx
+++ b/6kN Heat Sink Engine/ME411 - Pintle Flow/Data Collection 3-8-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thoth.cecs.pdx.edu\Home06\sreid\My Documents\GitHub\liquid-propellant-engine\6kN Heat Sink Engine\ME411 - Pintle Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898AC32D-13DE-4F13-B028-F161D7D45277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C08ED-8D95-460E-A084-8DA8DDD95D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="0" windowWidth="21600" windowHeight="12960" xr2:uid="{A12A2F89-01FA-4C62-A867-DCD7E100E8A4}"/>
+    <workbookView xWindow="1035" yWindow="0" windowWidth="21600" windowHeight="12960" xr2:uid="{A12A2F89-01FA-4C62-A867-DCD7E100E8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="@\ &quot;(Default)&quot;"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss.00"/>
+    <numFmt numFmtId="164" formatCode="@\ &quot;(Default)&quot;"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss.00"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -597,125 +597,125 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,13 +1032,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE552A72-F6C7-40B3-B93B-BF86FAE28750}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1456,521 +1456,521 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.20703125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="12"/>
+    <col min="1" max="1" width="15.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="27">
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>43898.626851412038</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>2565528</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <v>212</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="19">
         <v>-0.59</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="33.549999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A7" s="40" t="str">
-        <f>IF(A4="","",A4)</f>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="str">
+        <f t="shared" ref="A7:K7" si="0">IF(A4="","",A4)</f>
         <v>Time</v>
       </c>
-      <c r="B7" s="41" t="str">
-        <f>IF(B4="","",B4)</f>
+      <c r="B7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH1</v>
       </c>
-      <c r="C7" s="41" t="str">
-        <f>IF(C4="","",C4)</f>
+      <c r="C7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH2</v>
       </c>
-      <c r="D7" s="41" t="str">
-        <f>IF(D4="","",D4)</f>
+      <c r="D7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH3</v>
       </c>
-      <c r="E7" s="41" t="str">
-        <f>IF(E4="","",E4)</f>
+      <c r="E7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH4</v>
       </c>
-      <c r="F7" s="41" t="str">
-        <f>IF(F4="","",F4)</f>
+      <c r="F7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH5</v>
       </c>
-      <c r="G7" s="41" t="str">
-        <f>IF(G4="","",G4)</f>
+      <c r="G7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH6</v>
       </c>
-      <c r="H7" s="41" t="str">
-        <f>IF(H4="","",H4)</f>
+      <c r="H7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH7</v>
       </c>
-      <c r="I7" s="41" t="str">
-        <f>IF(I4="","",I4)</f>
+      <c r="I7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH8</v>
       </c>
-      <c r="J7" s="41" t="str">
-        <f>IF(J4="","",J4)</f>
+      <c r="J7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH9</v>
       </c>
-      <c r="K7" s="41" t="str">
-        <f>IF(K4="","",K4)</f>
+      <c r="K7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>CH10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>43898.626843124999</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="21">
         <v>2564812</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="21">
         <v>212</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="21">
         <v>-0.59</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>43898.626843738428</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="23">
         <v>2564864</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>212</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="34">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>43898.626844305552</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="23">
         <v>2564915</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>212</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>43898.626844918981</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="23">
         <v>2564965</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="23">
         <v>213</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>43898.626845486113</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="23">
         <v>2565017</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="23">
         <v>212</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>43898.626846099534</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="23">
         <v>2565068</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="23">
         <v>212</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="34">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>43898.626846678242</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="23">
         <v>2565118</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="23">
         <v>212</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="34">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>43898.626847291664</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="23">
         <v>2565171</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="23">
         <v>213</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>43898.626847858795</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="23">
         <v>2565221</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>212</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="34">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>43898.626848472224</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="23">
         <v>2565272</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <v>212</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>43898.626849039349</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="23">
         <v>2565323</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="23">
         <v>212</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="34">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>43898.626849652777</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="23">
         <v>2565374</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="23">
         <v>212</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="23">
         <v>-0.59</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>43898.626850231478</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>2565426</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>214</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="23">
         <v>-0.36</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="34">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>43898.626850844907</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="23">
         <v>2565477</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="23">
         <v>213</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="23">
         <v>-0.47</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="35">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>43898.626851412038</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="28">
         <v>2565528</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="28">
         <v>212</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="28">
         <v>-0.59</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1989,99 +1989,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3671875" defaultRowHeight="16.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3671875" style="12"/>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="42" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -2100,90 +2100,90 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="0.15625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="30.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
